--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regisrathmann/Documents/WRI/Produtos/Produto 4/InputData/land/BLAPE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC1465A0-0EEA-F347-90AA-8E8E0CC0F53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,15 +17,7 @@
     <sheet name="data from RPEpUACE" sheetId="4" r:id="rId3"/>
     <sheet name="BLAPE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -36,18 +27,45 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Land Use and Forestry (high sequestration)</t>
+  </si>
+  <si>
+    <t>Land Use and Forestry (low sequestration)</t>
+  </si>
+  <si>
+    <t>Excerpt from Table 3:</t>
+  </si>
+  <si>
     <t>Average</t>
   </si>
   <si>
     <t>Emissions (Tg CO2e)</t>
   </si>
   <si>
+    <t>We assume that all of the sequestered CO2e in the Land Use and Forestry sector is in the form of</t>
+  </si>
+  <si>
+    <t>CO2, not other GHGs.</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
+    <t>U.S. State Department</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>Page 34, Table 3</t>
+  </si>
+  <si>
+    <t>https://unfccc.int/files/national_reports/biennial_reports_and_iar/submitted_biennial_reports/application/pdf/2016_second_biennial_report_of_the_united_states_.pdf</t>
+  </si>
+  <si>
+    <t>Second Biennial Report of the United States of America</t>
+  </si>
+  <si>
     <t>BLAPE BAU LULUCF Anthropogenic Pollutant Emissions</t>
   </si>
   <si>
@@ -126,53 +144,22 @@
     <t>F gases</t>
   </si>
   <si>
+    <t>CO2 Sequestration</t>
+  </si>
+  <si>
     <t>Rebound CH4 and N2O Emissions</t>
   </si>
   <si>
     <t>See land/RPEpUACE</t>
   </si>
   <si>
-    <t>Land Use</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 56:</t>
-  </si>
-  <si>
-    <t>http://www.mctic.gov.br/mctic/export/sites/institucional/ciencia/SEPED/clima/arquivos/projeto_opcoes_mitigacao/publicacoes/AFOLU.pdf</t>
-  </si>
-  <si>
-    <t>Report: "Opções de mitigação de gases de efeito estufa em setores-chave do Brasil"</t>
-  </si>
-  <si>
-    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
-  </si>
-  <si>
-    <t>Projected pollutant emissions data for the land use sector until 2050, BAU scenario from the report cited.</t>
-  </si>
-  <si>
-    <t>CO2 Emission</t>
-  </si>
-  <si>
-    <t>Page 179, Table 56, first line / REF (reference) scenario</t>
-  </si>
-  <si>
-    <t>Version: "Modelagem Setorial  de opções de baixo carbono para agricultura, florestas e outros usos do solo (AFOLU)"</t>
-  </si>
-  <si>
-    <t>In "BLAPE" table, for CH4 and N2O calculation, the signal (-) has been changed to (+) as in Brazil CO2 emission</t>
-  </si>
-  <si>
-    <t>from LULUCF is positive.</t>
+    <t>Projected pollutant emissions data for the land use sector until 2030, linearly extrapolated to 2050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,13 +202,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -258,22 +245,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -290,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,23 +349,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -417,23 +384,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,126 +559,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="76.5" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2015</v>
       </c>
@@ -741,171 +670,202 @@
       <c r="E3">
         <v>2030</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13">
-        <v>354.61200000000002</v>
-      </c>
-      <c r="C4" s="13">
-        <v>330.17599999999999</v>
-      </c>
-      <c r="D4" s="13">
-        <v>307.69</v>
-      </c>
-      <c r="E4" s="13">
-        <v>287.23200000000003</v>
-      </c>
-      <c r="F4" s="14">
-        <v>234.81399999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
-        <f>AVERAGE(B4:B4)</f>
-        <v>354.61200000000002</v>
-      </c>
-      <c r="C6" s="15">
-        <f>AVERAGE(C4:C4)</f>
-        <v>330.17599999999999</v>
-      </c>
-      <c r="D6" s="15">
-        <f>AVERAGE(D4:D4)</f>
-        <v>307.69</v>
-      </c>
-      <c r="E6" s="15">
-        <f>AVERAGE(E4:E4)</f>
-        <v>287.23200000000003</v>
-      </c>
-      <c r="F6" s="15">
-        <f>AVERAGE(F4:F4)</f>
-        <v>234.81399999999999</v>
+      <c r="B4">
+        <v>-970</v>
+      </c>
+      <c r="C4">
+        <v>-1191</v>
+      </c>
+      <c r="D4">
+        <v>-1201</v>
+      </c>
+      <c r="E4">
+        <v>-1118</v>
+      </c>
+      <c r="F4" s="9">
+        <f>TREND($B4:$E4,$B$3:$E$3,F$3)</f>
+        <v>-1369.7000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-928</v>
+      </c>
+      <c r="C5">
+        <v>-1044</v>
+      </c>
+      <c r="D5">
+        <v>-908</v>
+      </c>
+      <c r="E5">
+        <v>-689</v>
+      </c>
+      <c r="F5" s="9">
+        <f>TREND($B5:$E5,$B$3:$E$3,F$3)</f>
+        <v>-423.09999999999854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:F7" si="0">AVERAGE(B4:B5)</f>
+        <v>-949</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>-1117.5</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>-1054.5</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>-903.5</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>-896.39999999999964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B6:E6" formulaRange="1"/>
+    <ignoredError sqref="B7:E7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4">
-        <v>2.0200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.2997168577917945E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4">
-        <v>8.0799999999999999E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.5003753313133949E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -917,39 +877,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="17" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="16">
+        <v>8</v>
+      </c>
+      <c r="B1">
         <v>2015</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1">
         <v>2017</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1">
         <v>2019</v>
       </c>
       <c r="G1" s="3">
@@ -997,10 +955,10 @@
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="10">
         <v>2035</v>
       </c>
-      <c r="W1" s="7">
+      <c r="W1" s="10">
         <v>2036</v>
       </c>
       <c r="X1">
@@ -1046,172 +1004,172 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="17">
-        <f>TREND(Data!$B6:$C6,Data!$B3:$C3,BLAPE!B1)*10^12</f>
-        <v>354611999999999.19</v>
-      </c>
-      <c r="C2" s="17">
-        <f>TREND(Data!$B6:$C6,Data!$B3:$C3,BLAPE!C1)*10^12</f>
-        <v>349724799999999.94</v>
-      </c>
-      <c r="D2" s="17">
-        <f>TREND(Data!$B6:$C6,Data!$B3:$C3,BLAPE!D1)*10^12</f>
-        <v>344837600000000.75</v>
-      </c>
-      <c r="E2" s="17">
-        <f>TREND(Data!$B6:$C6,Data!$B3:$C3,BLAPE!E1)*10^12</f>
-        <v>339950399999999.69</v>
-      </c>
-      <c r="F2" s="17">
-        <f>TREND(Data!$B6:$C6,Data!$B3:$C3,BLAPE!F1)*10^12</f>
-        <v>335063200000000.5</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!B1)*10^12</f>
+        <v>-949000000000000</v>
+      </c>
+      <c r="C2" s="4">
+        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!C1)*10^12</f>
+        <v>-982700000000011.63</v>
+      </c>
+      <c r="D2" s="4">
+        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!D1)*10^12</f>
+        <v>-1016400000000008.8</v>
+      </c>
+      <c r="E2" s="4">
+        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!E1)*10^12</f>
+        <v>-1050100000000005.9</v>
+      </c>
+      <c r="F2" s="4">
+        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!F1)*10^12</f>
+        <v>-1083800000000002.9</v>
       </c>
       <c r="G2" s="5">
-        <f>TREND(Data!$B6:$C6,Data!$B3:$C3,BLAPE!G1)*10^12</f>
-        <v>330175999999999.5</v>
+        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!G1)*10^12</f>
+        <v>-1117500000000000</v>
       </c>
       <c r="H2" s="4">
-        <f>TREND(Data!$C6:$D6,Data!$C3:$D3,BLAPE!H1)*10^12</f>
-        <v>325678799999999.69</v>
+        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!H1)*10^12</f>
+        <v>-1104900000000001.5</v>
       </c>
       <c r="I2" s="4">
-        <f>TREND(Data!$C6:$D6,Data!$C3:$D3,BLAPE!I1)*10^12</f>
-        <v>321181599999999.88</v>
+        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!I1)*10^12</f>
+        <v>-1092299999999999.3</v>
       </c>
       <c r="J2" s="4">
-        <f>TREND(Data!$C6:$D6,Data!$C3:$D3,BLAPE!J1)*10^12</f>
-        <v>316684400000000.12</v>
+        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!J1)*10^12</f>
+        <v>-1079700000000000.8</v>
       </c>
       <c r="K2" s="4">
-        <f>TREND(Data!$C6:$D6,Data!$C3:$D3,BLAPE!K1)*10^12</f>
-        <v>312187200000000.31</v>
+        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!K1)*10^12</f>
+        <v>-1067100000000002.1</v>
       </c>
       <c r="L2" s="5">
-        <f>TREND(Data!$C6:$D6,Data!$C3:$D3,BLAPE!L1)*10^12</f>
-        <v>307690000000000.5</v>
+        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!L1)*10^12</f>
+        <v>-1054500000000000</v>
       </c>
       <c r="M2" s="4">
-        <f>TREND(Data!$D6:$E6,Data!$D3:$E3,BLAPE!M1)*10^12</f>
-        <v>303598399999998.94</v>
+        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!M1)*10^12</f>
+        <v>-1024300000000002.9</v>
       </c>
       <c r="N2" s="4">
-        <f>TREND(Data!$D6:$E6,Data!$D3:$E3,BLAPE!N1)*10^12</f>
-        <v>299506799999999.19</v>
+        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!N1)*10^12</f>
+        <v>-994099999999998.5</v>
       </c>
       <c r="O2" s="4">
-        <f>TREND(Data!$D6:$E6,Data!$D3:$E3,BLAPE!O1)*10^12</f>
-        <v>295415199999999.44</v>
+        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!O1)*10^12</f>
+        <v>-963900000000001.5</v>
       </c>
       <c r="P2" s="4">
-        <f>TREND(Data!$D6:$E6,Data!$D3:$E3,BLAPE!P1)*10^12</f>
-        <v>291323599999999.69</v>
+        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!P1)*10^12</f>
+        <v>-933700000000004.38</v>
       </c>
       <c r="Q2" s="5">
-        <f>TREND(Data!$D6:$E6,Data!$D3:$E3,BLAPE!Q1)*10^12</f>
-        <v>287231999999998.12</v>
+        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!Q1)*10^12</f>
+        <v>-903500000000000</v>
       </c>
       <c r="R2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!R1)*10^12</f>
-        <v>284611100000000.06</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!R1)*10^12</f>
+        <v>-903144999999999.88</v>
       </c>
       <c r="S2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!S1)*10^12</f>
-        <v>281990200000000.19</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!S1)*10^12</f>
+        <v>-902789999999999.88</v>
       </c>
       <c r="T2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!T1)*10^12</f>
-        <v>279369300000000.28</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!T1)*10^12</f>
+        <v>-902434999999999.88</v>
       </c>
       <c r="U2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!U1)*10^12</f>
-        <v>276748400000000.41</v>
-      </c>
-      <c r="V2" s="8">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!V1)*10^12</f>
-        <v>274127500000000.5</v>
-      </c>
-      <c r="W2" s="8">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!W1)*10^12</f>
-        <v>271506599999999.72</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!U1)*10^12</f>
+        <v>-902079999999999.88</v>
+      </c>
+      <c r="V2" s="11">
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!V1)*10^12</f>
+        <v>-901724999999999.75</v>
+      </c>
+      <c r="W2" s="11">
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!W1)*10^12</f>
+        <v>-901369999999999.75</v>
       </c>
       <c r="X2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!X1)*10^12</f>
-        <v>268885699999999.81</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!X1)*10^12</f>
+        <v>-901014999999999.75</v>
       </c>
       <c r="Y2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!Y1)*10^12</f>
-        <v>266264799999999.94</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!Y1)*10^12</f>
+        <v>-900659999999999.75</v>
       </c>
       <c r="Z2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!Z1)*10^12</f>
-        <v>263643900000000.03</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!Z1)*10^12</f>
+        <v>-900304999999999.75</v>
       </c>
       <c r="AA2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AA1)*10^12</f>
-        <v>261023000000000.12</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AA1)*10^12</f>
+        <v>-899949999999999.75</v>
       </c>
       <c r="AB2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AB1)*10^12</f>
-        <v>258402100000000.25</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AB1)*10^12</f>
+        <v>-899594999999999.63</v>
       </c>
       <c r="AC2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AC1)*10^12</f>
-        <v>255781200000000.34</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AC1)*10^12</f>
+        <v>-899239999999999.63</v>
       </c>
       <c r="AD2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AD1)*10^12</f>
-        <v>253160300000000.47</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AD1)*10^12</f>
+        <v>-898884999999999.63</v>
       </c>
       <c r="AE2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AE1)*10^12</f>
-        <v>250539399999999.66</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AE1)*10^12</f>
+        <v>-898529999999999.63</v>
       </c>
       <c r="AF2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AF1)*10^12</f>
-        <v>247918499999999.78</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AF1)*10^12</f>
+        <v>-898174999999999.63</v>
       </c>
       <c r="AG2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AG1)*10^12</f>
-        <v>245297599999999.88</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AG1)*10^12</f>
+        <v>-897819999999999.63</v>
       </c>
       <c r="AH2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AH1)*10^12</f>
-        <v>242676699999999.97</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AH1)*10^12</f>
+        <v>-897464999999999.63</v>
       </c>
       <c r="AI2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AI1)*10^12</f>
-        <v>240055800000000.09</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AI1)*10^12</f>
+        <v>-897109999999999.5</v>
       </c>
       <c r="AJ2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AJ1)*10^12</f>
-        <v>237434900000000.19</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AJ1)*10^12</f>
+        <v>-896754999999999.5</v>
       </c>
       <c r="AK2" s="4">
-        <f>TREND(Data!$E6:$F6,Data!$E3:$F3,BLAPE!AK1)*10^12</f>
-        <v>234814000000000.31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AK1)*10^12</f>
+        <v>-896399999999999.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
@@ -1308,23 +1266,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="16">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
@@ -1421,23 +1379,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
@@ -1534,23 +1492,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
@@ -1647,23 +1605,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
@@ -1760,23 +1718,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
@@ -1873,23 +1831,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
@@ -1986,434 +1944,434 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <f>B$2*-'data from RPEpUACE'!$B11</f>
+        <v>408043129804.44128</v>
+      </c>
+      <c r="C11" s="4">
+        <f>C$2*-'data from RPEpUACE'!$B11</f>
+        <v>422533175615.20465</v>
+      </c>
+      <c r="D11" s="4">
+        <f>D$2*-'data from RPEpUACE'!$B11</f>
+        <v>437023221425.96173</v>
+      </c>
+      <c r="E11" s="4">
+        <f>E$2*-'data from RPEpUACE'!$B11</f>
+        <v>451513267236.71887</v>
+      </c>
+      <c r="F11" s="4">
+        <f>F$2*-'data from RPEpUACE'!$B11</f>
+        <v>466003313047.47595</v>
+      </c>
+      <c r="G11" s="4">
+        <f>G$2*-'data from RPEpUACE'!$B11</f>
+        <v>480493358858.23303</v>
+      </c>
+      <c r="H11" s="4">
+        <f>H$2*-'data from RPEpUACE'!$B11</f>
+        <v>475075715617.41602</v>
+      </c>
+      <c r="I11" s="4">
+        <f>I$2*-'data from RPEpUACE'!$B11</f>
+        <v>469658072376.59741</v>
+      </c>
+      <c r="J11" s="4">
+        <f>J$2*-'data from RPEpUACE'!$B11</f>
+        <v>464240429135.7804</v>
+      </c>
+      <c r="K11" s="4">
+        <f>K$2*-'data from RPEpUACE'!$B11</f>
+        <v>458822785894.96332</v>
+      </c>
+      <c r="L11" s="4">
+        <f>L$2*-'data from RPEpUACE'!$B11</f>
+        <v>453405142654.14471</v>
+      </c>
+      <c r="M11" s="4">
+        <f>M$2*-'data from RPEpUACE'!$B11</f>
+        <v>440419997743.61475</v>
+      </c>
+      <c r="N11" s="4">
+        <f>N$2*-'data from RPEpUACE'!$B11</f>
+        <v>427434852833.08167</v>
+      </c>
+      <c r="O11" s="4">
+        <f>O$2*-'data from RPEpUACE'!$B11</f>
+        <v>414449707922.5517</v>
+      </c>
+      <c r="P11" s="4">
+        <f>P$2*-'data from RPEpUACE'!$B11</f>
+        <v>401464563012.02173</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>Q$2*-'data from RPEpUACE'!$B11</f>
+        <v>388479418101.48865</v>
+      </c>
+      <c r="R11" s="4">
+        <f>R$2*-'data from RPEpUACE'!$B11</f>
+        <v>388326778153.03699</v>
+      </c>
+      <c r="S11" s="4">
+        <f>S$2*-'data from RPEpUACE'!$B11</f>
+        <v>388174138204.58539</v>
+      </c>
+      <c r="T11" s="4">
+        <f>T$2*-'data from RPEpUACE'!$B11</f>
+        <v>388021498256.13373</v>
+      </c>
+      <c r="U11" s="4">
+        <f>U$2*-'data from RPEpUACE'!$B11</f>
+        <v>387868858307.68213</v>
+      </c>
+      <c r="V11" s="4">
+        <f>V$2*-'data from RPEpUACE'!$B11</f>
+        <v>387716218359.23047</v>
+      </c>
+      <c r="W11" s="4">
+        <f>W$2*-'data from RPEpUACE'!$B11</f>
+        <v>387563578410.77887</v>
+      </c>
+      <c r="X11" s="4">
+        <f>X$2*-'data from RPEpUACE'!$B11</f>
+        <v>387410938462.32727</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>Y$2*-'data from RPEpUACE'!$B11</f>
+        <v>387258298513.87567</v>
+      </c>
+      <c r="Z11" s="4">
+        <f>Z$2*-'data from RPEpUACE'!$B11</f>
+        <v>387105658565.42407</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>AA$2*-'data from RPEpUACE'!$B11</f>
+        <v>386953018616.97241</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>AB$2*-'data from RPEpUACE'!$B11</f>
+        <v>386800378668.52075</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>AC$2*-'data from RPEpUACE'!$B11</f>
+        <v>386647738720.06915</v>
+      </c>
+      <c r="AD11" s="4">
+        <f>AD$2*-'data from RPEpUACE'!$B11</f>
+        <v>386495098771.61755</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>AE$2*-'data from RPEpUACE'!$B11</f>
+        <v>386342458823.16595</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>AF$2*-'data from RPEpUACE'!$B11</f>
+        <v>386189818874.71436</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>AG$2*-'data from RPEpUACE'!$B11</f>
+        <v>386037178926.26276</v>
+      </c>
+      <c r="AH11" s="4">
+        <f>AH$2*-'data from RPEpUACE'!$B11</f>
+        <v>385884538977.8111</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>AI$2*-'data from RPEpUACE'!$B11</f>
+        <v>385731899029.35944</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>AJ$2*-'data from RPEpUACE'!$B11</f>
+        <v>385579259080.90784</v>
+      </c>
+      <c r="AK11" s="4">
+        <f>AK$2*-'data from RPEpUACE'!$B11</f>
+        <v>385426619132.45624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B$2*-'data from RPEpUACE'!$B12</f>
+        <v>33218561894.164116</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C$2*-'data from RPEpUACE'!$B12</f>
+        <v>34398188380.817139</v>
+      </c>
+      <c r="D12" s="4">
+        <f>D$2*-'data from RPEpUACE'!$B12</f>
+        <v>35577814867.46965</v>
+      </c>
+      <c r="E12" s="4">
+        <f>E$2*-'data from RPEpUACE'!$B12</f>
+        <v>36757441354.122162</v>
+      </c>
+      <c r="F12" s="4">
+        <f>F$2*-'data from RPEpUACE'!$B12</f>
+        <v>37937067840.774673</v>
+      </c>
+      <c r="G12" s="4">
+        <f>G$2*-'data from RPEpUACE'!$B12</f>
+        <v>39116694327.427185</v>
+      </c>
+      <c r="H12" s="4">
+        <f>H$2*-'data from RPEpUACE'!$B12</f>
+        <v>38675647035.681755</v>
+      </c>
+      <c r="I12" s="4">
+        <f>I$2*-'data from RPEpUACE'!$B12</f>
+        <v>38234599743.936188</v>
+      </c>
+      <c r="J12" s="4">
+        <f>J$2*-'data from RPEpUACE'!$B12</f>
+        <v>37793552452.19075</v>
+      </c>
+      <c r="K12" s="4">
+        <f>K$2*-'data from RPEpUACE'!$B12</f>
+        <v>37352505160.445313</v>
+      </c>
+      <c r="L12" s="4">
+        <f>L$2*-'data from RPEpUACE'!$B12</f>
+        <v>36911457868.699745</v>
+      </c>
+      <c r="M12" s="4">
+        <f>M$2*-'data from RPEpUACE'!$B12</f>
+        <v>35854344518.643204</v>
+      </c>
+      <c r="N12" s="4">
+        <f>N$2*-'data from RPEpUACE'!$B12</f>
+        <v>34797231168.586403</v>
+      </c>
+      <c r="O12" s="4">
+        <f>O$2*-'data from RPEpUACE'!$B12</f>
+        <v>33740117818.529865</v>
+      </c>
+      <c r="P12" s="4">
+        <f>P$2*-'data from RPEpUACE'!$B12</f>
+        <v>32683004468.47332</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>Q$2*-'data from RPEpUACE'!$B12</f>
+        <v>31625891118.416523</v>
+      </c>
+      <c r="R12" s="4">
+        <f>R$2*-'data from RPEpUACE'!$B12</f>
+        <v>31613464785.990356</v>
+      </c>
+      <c r="S12" s="4">
+        <f>S$2*-'data from RPEpUACE'!$B12</f>
+        <v>31601038453.564194</v>
+      </c>
+      <c r="T12" s="4">
+        <f>T$2*-'data from RPEpUACE'!$B12</f>
+        <v>31588612121.138031</v>
+      </c>
+      <c r="U12" s="4">
+        <f>U$2*-'data from RPEpUACE'!$B12</f>
+        <v>31576185788.711868</v>
+      </c>
+      <c r="V12" s="4">
+        <f>V$2*-'data from RPEpUACE'!$B12</f>
+        <v>31563759456.285702</v>
+      </c>
+      <c r="W12" s="4">
+        <f>W$2*-'data from RPEpUACE'!$B12</f>
+        <v>31551333123.859539</v>
+      </c>
+      <c r="X12" s="4">
+        <f>X$2*-'data from RPEpUACE'!$B12</f>
+        <v>31538906791.433376</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>Y$2*-'data from RPEpUACE'!$B12</f>
+        <v>31526480459.007214</v>
+      </c>
+      <c r="Z12" s="4">
+        <f>Z$2*-'data from RPEpUACE'!$B12</f>
+        <v>31514054126.581051</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>AA$2*-'data from RPEpUACE'!$B12</f>
+        <v>31501627794.154888</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>AB$2*-'data from RPEpUACE'!$B12</f>
+        <v>31489201461.728722</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>AC$2*-'data from RPEpUACE'!$B12</f>
+        <v>31476775129.302559</v>
+      </c>
+      <c r="AD12" s="4">
+        <f>AD$2*-'data from RPEpUACE'!$B12</f>
+        <v>31464348796.876396</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>AE$2*-'data from RPEpUACE'!$B12</f>
+        <v>31451922464.450233</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>AF$2*-'data from RPEpUACE'!$B12</f>
+        <v>31439496132.024071</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>AG$2*-'data from RPEpUACE'!$B12</f>
+        <v>31427069799.597908</v>
+      </c>
+      <c r="AH12" s="4">
+        <f>AH$2*-'data from RPEpUACE'!$B12</f>
+        <v>31414643467.171745</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>AI$2*-'data from RPEpUACE'!$B12</f>
+        <v>31402217134.745579</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>AJ$2*-'data from RPEpUACE'!$B12</f>
+        <v>31389790802.319416</v>
+      </c>
+      <c r="AK12" s="4">
+        <f>AK$2*-'data from RPEpUACE'!$B12</f>
+        <v>31377364469.893253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="17">
-        <f>B$2*'data from RPEpUACE'!$B11</f>
-        <v>716316239999.99841</v>
-      </c>
-      <c r="C11" s="17">
-        <f>C$2*'data from RPEpUACE'!$B11</f>
-        <v>706444095999.99988</v>
-      </c>
-      <c r="D11" s="17">
-        <f>D$2*'data from RPEpUACE'!$B11</f>
-        <v>696571952000.00159</v>
-      </c>
-      <c r="E11" s="17">
-        <f>E$2*'data from RPEpUACE'!$B11</f>
-        <v>686699807999.99939</v>
-      </c>
-      <c r="F11" s="17">
-        <f>F$2*'data from RPEpUACE'!$B11</f>
-        <v>676827664000.0011</v>
-      </c>
-      <c r="G11" s="4">
-        <f>G$2*'data from RPEpUACE'!$B11</f>
-        <v>666955519999.99902</v>
-      </c>
-      <c r="H11" s="4">
-        <f>H$2*'data from RPEpUACE'!$B11</f>
-        <v>657871175999.99939</v>
-      </c>
-      <c r="I11" s="4">
-        <f>I$2*'data from RPEpUACE'!$B11</f>
-        <v>648786831999.99976</v>
-      </c>
-      <c r="J11" s="4">
-        <f>J$2*'data from RPEpUACE'!$B11</f>
-        <v>639702488000.00024</v>
-      </c>
-      <c r="K11" s="4">
-        <f>K$2*'data from RPEpUACE'!$B11</f>
-        <v>630618144000.00061</v>
-      </c>
-      <c r="L11" s="4">
-        <f>L$2*'data from RPEpUACE'!$B11</f>
-        <v>621533800000.0011</v>
-      </c>
-      <c r="M11" s="4">
-        <f>M$2*'data from RPEpUACE'!$B11</f>
-        <v>613268767999.99792</v>
-      </c>
-      <c r="N11" s="4">
-        <f>N$2*'data from RPEpUACE'!$B11</f>
-        <v>605003735999.99841</v>
-      </c>
-      <c r="O11" s="4">
-        <f>O$2*'data from RPEpUACE'!$B11</f>
-        <v>596738703999.9989</v>
-      </c>
-      <c r="P11" s="4">
-        <f>P$2*'data from RPEpUACE'!$B11</f>
-        <v>588473671999.99939</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>Q$2*'data from RPEpUACE'!$B11</f>
-        <v>580208639999.99622</v>
-      </c>
-      <c r="R11" s="4">
-        <f>R$2*'data from RPEpUACE'!$B11</f>
-        <v>574914422000.00012</v>
-      </c>
-      <c r="S11" s="4">
-        <f>S$2*'data from RPEpUACE'!$B11</f>
-        <v>569620204000.00037</v>
-      </c>
-      <c r="T11" s="4">
-        <f>T$2*'data from RPEpUACE'!$B11</f>
-        <v>564325986000.00061</v>
-      </c>
-      <c r="U11" s="4">
-        <f>U$2*'data from RPEpUACE'!$B11</f>
-        <v>559031768000.00085</v>
-      </c>
-      <c r="V11" s="4">
-        <f>V$2*'data from RPEpUACE'!$B11</f>
-        <v>553737550000.00098</v>
-      </c>
-      <c r="W11" s="4">
-        <f>W$2*'data from RPEpUACE'!$B11</f>
-        <v>548443331999.99945</v>
-      </c>
-      <c r="X11" s="4">
-        <f>X$2*'data from RPEpUACE'!$B11</f>
-        <v>543149113999.99963</v>
-      </c>
-      <c r="Y11" s="4">
-        <f>Y$2*'data from RPEpUACE'!$B11</f>
-        <v>537854895999.99988</v>
-      </c>
-      <c r="Z11" s="4">
-        <f>Z$2*'data from RPEpUACE'!$B11</f>
-        <v>532560678000.00006</v>
-      </c>
-      <c r="AA11" s="4">
-        <f>AA$2*'data from RPEpUACE'!$B11</f>
-        <v>527266460000.00031</v>
-      </c>
-      <c r="AB11" s="4">
-        <f>AB$2*'data from RPEpUACE'!$B11</f>
-        <v>521972242000.00055</v>
-      </c>
-      <c r="AC11" s="4">
-        <f>AC$2*'data from RPEpUACE'!$B11</f>
-        <v>516678024000.00073</v>
-      </c>
-      <c r="AD11" s="4">
-        <f>AD$2*'data from RPEpUACE'!$B11</f>
-        <v>511383806000.00098</v>
-      </c>
-      <c r="AE11" s="4">
-        <f>AE$2*'data from RPEpUACE'!$B11</f>
-        <v>506089587999.99933</v>
-      </c>
-      <c r="AF11" s="4">
-        <f>AF$2*'data from RPEpUACE'!$B11</f>
-        <v>500795369999.99957</v>
-      </c>
-      <c r="AG11" s="4">
-        <f>AG$2*'data from RPEpUACE'!$B11</f>
-        <v>495501151999.99976</v>
-      </c>
-      <c r="AH11" s="4">
-        <f>AH$2*'data from RPEpUACE'!$B11</f>
-        <v>490206933999.99994</v>
-      </c>
-      <c r="AI11" s="4">
-        <f>AI$2*'data from RPEpUACE'!$B11</f>
-        <v>484912716000.00018</v>
-      </c>
-      <c r="AJ11" s="4">
-        <f>AJ$2*'data from RPEpUACE'!$B11</f>
-        <v>479618498000.00043</v>
-      </c>
-      <c r="AK11" s="4">
-        <f>AK$2*'data from RPEpUACE'!$B11</f>
-        <v>474324280000.00067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="17">
-        <f>B$2*'data from RPEpUACE'!$B12</f>
-        <v>28652649599.999935</v>
-      </c>
-      <c r="C12" s="17">
-        <f>C$2*'data from RPEpUACE'!$B12</f>
-        <v>28257763839.999996</v>
-      </c>
-      <c r="D12" s="17">
-        <f>D$2*'data from RPEpUACE'!$B12</f>
-        <v>27862878080.000061</v>
-      </c>
-      <c r="E12" s="17">
-        <f>E$2*'data from RPEpUACE'!$B12</f>
-        <v>27467992319.999973</v>
-      </c>
-      <c r="F12" s="17">
-        <f>F$2*'data from RPEpUACE'!$B12</f>
-        <v>27073106560.000038</v>
-      </c>
-      <c r="G12" s="4">
-        <f>G$2*'data from RPEpUACE'!$B12</f>
-        <v>26678220799.999958</v>
-      </c>
-      <c r="H12" s="4">
-        <f>H$2*'data from RPEpUACE'!$B12</f>
-        <v>26314847039.999973</v>
-      </c>
-      <c r="I12" s="4">
-        <f>I$2*'data from RPEpUACE'!$B12</f>
-        <v>25951473279.999989</v>
-      </c>
-      <c r="J12" s="4">
-        <f>J$2*'data from RPEpUACE'!$B12</f>
-        <v>25588099520.000011</v>
-      </c>
-      <c r="K12" s="4">
-        <f>K$2*'data from RPEpUACE'!$B12</f>
-        <v>25224725760.000027</v>
-      </c>
-      <c r="L12" s="4">
-        <f>L$2*'data from RPEpUACE'!$B12</f>
-        <v>24861352000.000042</v>
-      </c>
-      <c r="M12" s="4">
-        <f>M$2*'data from RPEpUACE'!$B12</f>
-        <v>24530750719.999912</v>
-      </c>
-      <c r="N12" s="4">
-        <f>N$2*'data from RPEpUACE'!$B12</f>
-        <v>24200149439.999935</v>
-      </c>
-      <c r="O12" s="4">
-        <f>O$2*'data from RPEpUACE'!$B12</f>
-        <v>23869548159.999954</v>
-      </c>
-      <c r="P12" s="4">
-        <f>P$2*'data from RPEpUACE'!$B12</f>
-        <v>23538946879.999973</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>Q$2*'data from RPEpUACE'!$B12</f>
-        <v>23208345599.999847</v>
-      </c>
-      <c r="R12" s="4">
-        <f>R$2*'data from RPEpUACE'!$B12</f>
-        <v>22996576880.000004</v>
-      </c>
-      <c r="S12" s="4">
-        <f>S$2*'data from RPEpUACE'!$B12</f>
-        <v>22784808160.000015</v>
-      </c>
-      <c r="T12" s="4">
-        <f>T$2*'data from RPEpUACE'!$B12</f>
-        <v>22573039440.000023</v>
-      </c>
-      <c r="U12" s="4">
-        <f>U$2*'data from RPEpUACE'!$B12</f>
-        <v>22361270720.000034</v>
-      </c>
-      <c r="V12" s="4">
-        <f>V$2*'data from RPEpUACE'!$B12</f>
-        <v>22149502000.000042</v>
-      </c>
-      <c r="W12" s="4">
-        <f>W$2*'data from RPEpUACE'!$B12</f>
-        <v>21937733279.999977</v>
-      </c>
-      <c r="X12" s="4">
-        <f>X$2*'data from RPEpUACE'!$B12</f>
-        <v>21725964559.999985</v>
-      </c>
-      <c r="Y12" s="4">
-        <f>Y$2*'data from RPEpUACE'!$B12</f>
-        <v>21514195839.999996</v>
-      </c>
-      <c r="Z12" s="4">
-        <f>Z$2*'data from RPEpUACE'!$B12</f>
-        <v>21302427120.000004</v>
-      </c>
-      <c r="AA12" s="4">
-        <f>AA$2*'data from RPEpUACE'!$B12</f>
-        <v>21090658400.000011</v>
-      </c>
-      <c r="AB12" s="4">
-        <f>AB$2*'data from RPEpUACE'!$B12</f>
-        <v>20878889680.000019</v>
-      </c>
-      <c r="AC12" s="4">
-        <f>AC$2*'data from RPEpUACE'!$B12</f>
-        <v>20667120960.000027</v>
-      </c>
-      <c r="AD12" s="4">
-        <f>AD$2*'data from RPEpUACE'!$B12</f>
-        <v>20455352240.000038</v>
-      </c>
-      <c r="AE12" s="4">
-        <f>AE$2*'data from RPEpUACE'!$B12</f>
-        <v>20243583519.999973</v>
-      </c>
-      <c r="AF12" s="4">
-        <f>AF$2*'data from RPEpUACE'!$B12</f>
-        <v>20031814799.999981</v>
-      </c>
-      <c r="AG12" s="4">
-        <f>AG$2*'data from RPEpUACE'!$B12</f>
-        <v>19820046079.999989</v>
-      </c>
-      <c r="AH12" s="4">
-        <f>AH$2*'data from RPEpUACE'!$B12</f>
-        <v>19608277359.999996</v>
-      </c>
-      <c r="AI12" s="4">
-        <f>AI$2*'data from RPEpUACE'!$B12</f>
-        <v>19396508640.000008</v>
-      </c>
-      <c r="AJ12" s="4">
-        <f>AJ$2*'data from RPEpUACE'!$B12</f>
-        <v>19184739920.000015</v>
-      </c>
-      <c r="AK12" s="4">
-        <f>AK$2*'data from RPEpUACE'!$B12</f>
-        <v>18972971200.000027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
